--- a/upload/data.xlsx
+++ b/upload/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
   <si>
     <t>Tabla 1</t>
   </si>
@@ -224,6 +224,285 @@
   </si>
   <si>
     <t>frecoa@hotmail.com</t>
+  </si>
+  <si>
+    <t>CCM0020</t>
+  </si>
+  <si>
+    <t>Luz Yesenia</t>
+  </si>
+  <si>
+    <t>Molina</t>
+  </si>
+  <si>
+    <t>Cham</t>
+  </si>
+  <si>
+    <t>CCM0021</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Colca</t>
+  </si>
+  <si>
+    <t>Huaranca</t>
+  </si>
+  <si>
+    <t>CCM0022</t>
+  </si>
+  <si>
+    <t>Georgina</t>
+  </si>
+  <si>
+    <t>Chavez</t>
+  </si>
+  <si>
+    <t>Tito</t>
+  </si>
+  <si>
+    <t>CCM0023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danitza </t>
+  </si>
+  <si>
+    <t>Ccallo</t>
+  </si>
+  <si>
+    <t>CCM0024</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
+    <t>Mazco</t>
+  </si>
+  <si>
+    <t>Ponce</t>
+  </si>
+  <si>
+    <t>CCM0025</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Vargas</t>
+  </si>
+  <si>
+    <t>CCM0026</t>
+  </si>
+  <si>
+    <t>Benigna</t>
+  </si>
+  <si>
+    <t>Collanqui</t>
+  </si>
+  <si>
+    <t>Chambi</t>
+  </si>
+  <si>
+    <t>CCM0027</t>
+  </si>
+  <si>
+    <t>Beatriz</t>
+  </si>
+  <si>
+    <t>Bruna</t>
+  </si>
+  <si>
+    <t>Paco</t>
+  </si>
+  <si>
+    <t>CCM0028</t>
+  </si>
+  <si>
+    <t>Mifflen</t>
+  </si>
+  <si>
+    <t>Ccala</t>
+  </si>
+  <si>
+    <t>Machaca</t>
+  </si>
+  <si>
+    <t>CCM0029</t>
+  </si>
+  <si>
+    <t>Ross Mery</t>
+  </si>
+  <si>
+    <t>Condor</t>
+  </si>
+  <si>
+    <t>CCM0030</t>
+  </si>
+  <si>
+    <t>Ronaldinho</t>
+  </si>
+  <si>
+    <t>Gonzales</t>
+  </si>
+  <si>
+    <t>CCM0031</t>
+  </si>
+  <si>
+    <t>Wilver</t>
+  </si>
+  <si>
+    <t>Apaza</t>
+  </si>
+  <si>
+    <t>CCM0032</t>
+  </si>
+  <si>
+    <t>Leidy</t>
+  </si>
+  <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>CCM0033</t>
+  </si>
+  <si>
+    <t>Ruth</t>
+  </si>
+  <si>
+    <t>Masco</t>
+  </si>
+  <si>
+    <t>CCM0034</t>
+  </si>
+  <si>
+    <t>Johayra</t>
+  </si>
+  <si>
+    <t>Inofuente</t>
+  </si>
+  <si>
+    <t>CCM0035</t>
+  </si>
+  <si>
+    <t>Miriam</t>
+  </si>
+  <si>
+    <t>CCM0036</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>CCM0037</t>
+  </si>
+  <si>
+    <t>Leonel</t>
+  </si>
+  <si>
+    <t>Pilco</t>
+  </si>
+  <si>
+    <t>CCM0038</t>
+  </si>
+  <si>
+    <t>Anali</t>
+  </si>
+  <si>
+    <t>Cansaya</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>CCM0039</t>
+  </si>
+  <si>
+    <t>Hilda</t>
+  </si>
+  <si>
+    <t>Asillo</t>
+  </si>
+  <si>
+    <t>Larico</t>
+  </si>
+  <si>
+    <t>CCM0040</t>
+  </si>
+  <si>
+    <t>Jony</t>
+  </si>
+  <si>
+    <t>Lipa</t>
+  </si>
+  <si>
+    <t>Miranda</t>
+  </si>
+  <si>
+    <t>CCM0041</t>
+  </si>
+  <si>
+    <t>Milagro</t>
+  </si>
+  <si>
+    <t>Carita</t>
+  </si>
+  <si>
+    <t>CCM0042</t>
+  </si>
+  <si>
+    <t>Herlinda</t>
+  </si>
+  <si>
+    <t>Vilca</t>
+  </si>
+  <si>
+    <t>CCM0043</t>
+  </si>
+  <si>
+    <t>Edith</t>
+  </si>
+  <si>
+    <t>Quipe</t>
+  </si>
+  <si>
+    <t>CCM0044</t>
+  </si>
+  <si>
+    <t>Alfredo</t>
+  </si>
+  <si>
+    <t>Callapani</t>
+  </si>
+  <si>
+    <t>Catunt</t>
+  </si>
+  <si>
+    <t>CCM0045</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Hancco</t>
+  </si>
+  <si>
+    <t>Laquita</t>
+  </si>
+  <si>
+    <t>CCM0046</t>
+  </si>
+  <si>
+    <t>Ccaccasaca</t>
+  </si>
+  <si>
+    <t>CCM0047</t>
+  </si>
+  <si>
+    <t>Marizuat</t>
   </si>
 </sst>
 </file>
@@ -233,7 +512,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -241,6 +520,11 @@
     </font>
     <font>
       <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -256,7 +540,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,12 +555,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -288,21 +578,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="10"/>
-      </left>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -310,172 +607,202 @@
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </left>
       <right style="medium">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </right>
       <top style="medium">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="medium">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="medium">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="medium">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </right>
       <top style="medium">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="medium">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="medium">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,72 +812,105 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,8 +929,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffcccccc"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
@@ -590,10 +952,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -770,11 +1132,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -783,7 +1148,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -798,19 +1163,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1058,12 +1423,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1354,7 +1719,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1632,15 +1997,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:L23"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="12" width="17.0391" style="1" customWidth="1"/>
+    <col min="1" max="12" width="17" style="1" customWidth="1"/>
     <col min="13" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1648,585 +2011,1409 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" ht="20.85" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="4">
+      <c r="E2" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="3">
+      <c r="H2" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="3">
+      <c r="I2" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="3">
+      <c r="J2" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" ht="31.65" customHeight="1">
-      <c r="A3" t="s" s="6">
+      <c r="A3" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" t="s" s="10">
         <v>13</v>
       </c>
-      <c r="D3" t="s" s="9">
+      <c r="D3" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="E3" t="s" s="10">
+      <c r="E3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="13">
         <v>23667</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="14">
         <v>962771297</v>
       </c>
-      <c r="H3" t="s" s="8">
+      <c r="H3" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="I3" t="s" s="8">
+      <c r="I3" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="J3" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="J3" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" ht="31.65" customHeight="1">
-      <c r="A4" t="s" s="6">
+      <c r="A4" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="B4" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="C4" t="s" s="8">
+      <c r="C4" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="D4" t="s" s="14">
+      <c r="D4" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="E4" t="s" s="15">
+      <c r="E4" t="s" s="17">
         <v>23</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="13">
         <v>25814</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="14">
         <v>965725885</v>
       </c>
-      <c r="H4" t="s" s="8">
+      <c r="H4" t="s" s="10">
         <v>24</v>
       </c>
-      <c r="I4" t="s" s="8">
+      <c r="I4" t="s" s="10">
         <v>25</v>
       </c>
-      <c r="J4" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="J4" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
     </row>
     <row r="5" ht="31.65" customHeight="1">
-      <c r="A5" t="s" s="6">
+      <c r="A5" t="s" s="8">
         <v>26</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="14">
         <v>40208498</v>
       </c>
-      <c r="C5" t="s" s="8">
+      <c r="C5" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="D5" t="s" s="14">
+      <c r="D5" t="s" s="16">
         <v>28</v>
       </c>
-      <c r="E5" t="s" s="15">
+      <c r="E5" t="s" s="17">
         <v>29</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="13">
         <v>44838</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="14">
         <v>967734105</v>
       </c>
-      <c r="H5" t="s" s="8">
+      <c r="H5" t="s" s="10">
         <v>30</v>
       </c>
-      <c r="I5" t="s" s="8">
+      <c r="I5" t="s" s="10">
         <v>25</v>
       </c>
-      <c r="J5" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="J5" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" ht="31.65" customHeight="1">
-      <c r="A6" t="s" s="6">
+      <c r="A6" t="s" s="8">
         <v>31</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="14">
         <v>75962144</v>
       </c>
-      <c r="C6" t="s" s="8">
+      <c r="C6" t="s" s="10">
         <v>32</v>
       </c>
-      <c r="D6" t="s" s="14">
+      <c r="D6" t="s" s="16">
         <v>33</v>
       </c>
-      <c r="E6" t="s" s="15">
+      <c r="E6" t="s" s="17">
         <v>34</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="13">
         <v>34954</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="14">
         <v>953766600</v>
       </c>
-      <c r="H6" t="s" s="8">
+      <c r="H6" t="s" s="10">
         <v>35</v>
       </c>
-      <c r="I6" t="s" s="8">
+      <c r="I6" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="J6" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="J6" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" ht="31.65" customHeight="1">
-      <c r="A7" t="s" s="6">
+      <c r="A7" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="14">
         <v>45742708</v>
       </c>
-      <c r="C7" t="s" s="8">
+      <c r="C7" t="s" s="10">
         <v>37</v>
       </c>
-      <c r="D7" t="s" s="14">
+      <c r="D7" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="E7" t="s" s="15">
+      <c r="E7" t="s" s="17">
         <v>33</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="13">
         <v>32641</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="14">
         <v>988394565</v>
       </c>
-      <c r="H7" t="s" s="8">
+      <c r="H7" t="s" s="10">
         <v>38</v>
       </c>
-      <c r="I7" t="s" s="8">
+      <c r="I7" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="J7" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="J7" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" ht="31.65" customHeight="1">
-      <c r="A8" t="s" s="6">
+      <c r="A8" t="s" s="8">
         <v>39</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="14">
         <v>46369291</v>
       </c>
-      <c r="C8" t="s" s="8">
+      <c r="C8" t="s" s="10">
         <v>40</v>
       </c>
-      <c r="D8" t="s" s="14">
+      <c r="D8" t="s" s="16">
         <v>29</v>
       </c>
-      <c r="E8" t="s" s="15">
+      <c r="E8" t="s" s="17">
         <v>41</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="13">
         <v>33166</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="14">
         <v>988993340</v>
       </c>
-      <c r="H8" t="s" s="8">
+      <c r="H8" t="s" s="10">
         <v>42</v>
       </c>
-      <c r="I8" t="s" s="8">
+      <c r="I8" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="J8" t="s" s="8">
+      <c r="J8" t="s" s="10">
         <v>43</v>
       </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" ht="31.65" customHeight="1">
-      <c r="A9" t="s" s="6">
+      <c r="A9" t="s" s="8">
         <v>44</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="14">
         <v>45611277</v>
       </c>
-      <c r="C9" t="s" s="8">
+      <c r="C9" t="s" s="10">
         <v>45</v>
       </c>
-      <c r="D9" t="s" s="14">
+      <c r="D9" t="s" s="16">
         <v>46</v>
       </c>
-      <c r="E9" t="s" s="15">
+      <c r="E9" t="s" s="17">
         <v>29</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="13">
         <v>32553</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="14">
         <v>958017150</v>
       </c>
-      <c r="H9" t="s" s="8">
+      <c r="H9" t="s" s="10">
         <v>47</v>
       </c>
-      <c r="I9" t="s" s="8">
+      <c r="I9" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="J9" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="J9" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" ht="31.65" customHeight="1">
-      <c r="A10" t="s" s="6">
+      <c r="A10" t="s" s="8">
         <v>48</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="14">
         <v>45025860</v>
       </c>
-      <c r="C10" t="s" s="8">
+      <c r="C10" t="s" s="10">
         <v>49</v>
       </c>
-      <c r="D10" t="s" s="14">
+      <c r="D10" t="s" s="16">
         <v>50</v>
       </c>
-      <c r="E10" t="s" s="15">
+      <c r="E10" t="s" s="17">
         <v>51</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="13">
         <v>32195</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="14">
         <v>971518013</v>
       </c>
-      <c r="H10" t="s" s="8">
+      <c r="H10" t="s" s="10">
         <v>52</v>
       </c>
-      <c r="I10" t="s" s="8">
+      <c r="I10" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="J10" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="J10" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" ht="31.65" customHeight="1">
-      <c r="A11" t="s" s="6">
+      <c r="A11" t="s" s="8">
         <v>53</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="14">
         <v>77031482</v>
       </c>
-      <c r="C11" t="s" s="8">
+      <c r="C11" t="s" s="10">
         <v>54</v>
       </c>
-      <c r="D11" t="s" s="14">
+      <c r="D11" t="s" s="16">
         <v>55</v>
       </c>
-      <c r="E11" t="s" s="15">
+      <c r="E11" t="s" s="17">
         <v>56</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="13">
         <v>34623</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="14">
         <v>902582819</v>
       </c>
-      <c r="H11" t="s" s="8">
+      <c r="H11" t="s" s="10">
         <v>57</v>
       </c>
-      <c r="I11" t="s" s="8">
+      <c r="I11" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="J11" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="J11" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" ht="31.65" customHeight="1">
-      <c r="A12" t="s" s="6">
+      <c r="A12" t="s" s="8">
         <v>58</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="14">
         <v>80212250</v>
       </c>
-      <c r="C12" t="s" s="8">
+      <c r="C12" t="s" s="10">
         <v>59</v>
       </c>
-      <c r="D12" t="s" s="14">
+      <c r="D12" t="s" s="16">
         <v>22</v>
       </c>
-      <c r="E12" t="s" s="15">
+      <c r="E12" t="s" s="17">
         <v>60</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="13">
         <v>29002</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="14">
         <v>942965879</v>
       </c>
-      <c r="H12" t="s" s="8">
+      <c r="H12" t="s" s="10">
         <v>61</v>
       </c>
-      <c r="I12" t="s" s="8">
+      <c r="I12" t="s" s="10">
         <v>25</v>
       </c>
-      <c r="J12" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="J12" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" ht="31.65" customHeight="1">
-      <c r="A13" t="s" s="6">
+      <c r="A13" t="s" s="8">
         <v>62</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="14">
         <v>44866948</v>
       </c>
-      <c r="C13" t="s" s="8">
+      <c r="C13" t="s" s="10">
         <v>63</v>
       </c>
-      <c r="D13" t="s" s="14">
+      <c r="D13" t="s" s="16">
         <v>64</v>
       </c>
-      <c r="E13" t="s" s="15">
+      <c r="E13" t="s" s="17">
         <v>15</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="13">
         <v>32083</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="14">
         <v>988787830</v>
       </c>
-      <c r="H13" t="s" s="8">
+      <c r="H13" t="s" s="10">
         <v>65</v>
       </c>
-      <c r="I13" t="s" s="8">
+      <c r="I13" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="J13" t="s" s="8">
+      <c r="J13" t="s" s="10">
         <v>43</v>
       </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" ht="20.65" customHeight="1">
-      <c r="A14" t="s" s="6">
+      <c r="A14" t="s" s="8">
         <v>66</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="14">
         <v>29419410</v>
       </c>
-      <c r="C14" t="s" s="8">
+      <c r="C14" t="s" s="10">
         <v>67</v>
       </c>
-      <c r="D14" t="s" s="14">
+      <c r="D14" t="s" s="16">
         <v>68</v>
       </c>
-      <c r="E14" t="s" s="15">
+      <c r="E14" t="s" s="17">
         <v>69</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="13">
         <v>25281</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="14">
         <v>987703237</v>
       </c>
-      <c r="H14" t="s" s="8">
+      <c r="H14" t="s" s="10">
         <v>70</v>
       </c>
-      <c r="I14" t="s" s="8">
+      <c r="I14" t="s" s="10">
         <v>25</v>
       </c>
-      <c r="J14" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="J14" t="s" s="10">
+        <v>18</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" ht="20.85" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
+      <c r="A15" t="s" s="18">
+        <v>71</v>
+      </c>
+      <c r="B15" s="19">
+        <v>47249646</v>
+      </c>
+      <c r="C15" t="s" s="20">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s" s="21">
+        <v>73</v>
+      </c>
+      <c r="E15" t="s" s="21">
+        <v>74</v>
+      </c>
+      <c r="F15" s="22">
+        <v>25282</v>
+      </c>
+      <c r="G15" s="23">
+        <v>987703237</v>
+      </c>
+      <c r="H15" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="I15" t="s" s="24">
+        <v>25</v>
+      </c>
+      <c r="J15" t="s" s="24">
+        <v>18</v>
+      </c>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
+      <c r="A16" t="s" s="26">
+        <v>75</v>
+      </c>
+      <c r="B16" s="27">
+        <v>2398335</v>
+      </c>
+      <c r="C16" t="s" s="21">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s" s="21">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s" s="21">
+        <v>78</v>
+      </c>
+      <c r="F16" s="28">
+        <v>25283</v>
+      </c>
+      <c r="G16" s="29">
+        <v>987703237</v>
+      </c>
+      <c r="H16" t="s" s="30">
+        <v>70</v>
+      </c>
+      <c r="I16" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
+      <c r="A17" t="s" s="26">
+        <v>79</v>
+      </c>
+      <c r="B17" s="27">
+        <v>40969126</v>
+      </c>
+      <c r="C17" t="s" s="21">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s" s="21">
+        <v>81</v>
+      </c>
+      <c r="E17" t="s" s="21">
+        <v>82</v>
+      </c>
+      <c r="F17" s="28">
+        <v>25284</v>
+      </c>
+      <c r="G17" s="29">
+        <v>987703237</v>
+      </c>
+      <c r="H17" t="s" s="30">
+        <v>70</v>
+      </c>
+      <c r="I17" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+      <c r="A18" t="s" s="26">
+        <v>83</v>
+      </c>
+      <c r="B18" s="27">
+        <v>70222840</v>
+      </c>
+      <c r="C18" t="s" s="21">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s" s="21">
+        <v>85</v>
+      </c>
+      <c r="E18" t="s" s="21">
+        <v>85</v>
+      </c>
+      <c r="F18" s="28">
+        <v>25285</v>
+      </c>
+      <c r="G18" s="29">
+        <v>987703237</v>
+      </c>
+      <c r="H18" t="s" s="30">
+        <v>70</v>
+      </c>
+      <c r="I18" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="A19" t="s" s="26">
+        <v>86</v>
+      </c>
+      <c r="B19" s="27">
+        <v>41519571</v>
+      </c>
+      <c r="C19" t="s" s="21">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s" s="21">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s" s="21">
+        <v>89</v>
+      </c>
+      <c r="F19" s="28">
+        <v>25286</v>
+      </c>
+      <c r="G19" s="29">
+        <v>987703237</v>
+      </c>
+      <c r="H19" t="s" s="30">
+        <v>70</v>
+      </c>
+      <c r="I19" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="J19" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
+      <c r="A20" t="s" s="26">
+        <v>90</v>
+      </c>
+      <c r="B20" s="27">
+        <v>48682249</v>
+      </c>
+      <c r="C20" t="s" s="21">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s" s="21">
+        <v>92</v>
+      </c>
+      <c r="E20" t="s" s="21">
+        <v>15</v>
+      </c>
+      <c r="F20" s="28">
+        <v>25287</v>
+      </c>
+      <c r="G20" s="29">
+        <v>987703237</v>
+      </c>
+      <c r="H20" t="s" s="30">
+        <v>70</v>
+      </c>
+      <c r="I20" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="J20" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
+      <c r="A21" t="s" s="26">
+        <v>93</v>
+      </c>
+      <c r="B21" s="27">
+        <v>41654971</v>
+      </c>
+      <c r="C21" t="s" s="21">
+        <v>94</v>
+      </c>
+      <c r="D21" t="s" s="21">
+        <v>95</v>
+      </c>
+      <c r="E21" t="s" s="21">
+        <v>96</v>
+      </c>
+      <c r="F21" s="28">
+        <v>25288</v>
+      </c>
+      <c r="G21" s="29">
+        <v>987703237</v>
+      </c>
+      <c r="H21" t="s" s="30">
+        <v>70</v>
+      </c>
+      <c r="I21" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="J21" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
+      <c r="A22" t="s" s="26">
+        <v>97</v>
+      </c>
+      <c r="B22" s="27">
+        <v>41654971</v>
+      </c>
+      <c r="C22" t="s" s="21">
+        <v>98</v>
+      </c>
+      <c r="D22" t="s" s="21">
+        <v>99</v>
+      </c>
+      <c r="E22" t="s" s="21">
+        <v>100</v>
+      </c>
+      <c r="F22" s="28">
+        <v>25289</v>
+      </c>
+      <c r="G22" s="29">
+        <v>987703237</v>
+      </c>
+      <c r="H22" t="s" s="30">
+        <v>70</v>
+      </c>
+      <c r="I22" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="J22" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
+      <c r="A23" t="s" s="26">
+        <v>101</v>
+      </c>
+      <c r="B23" s="27">
+        <v>29410478</v>
+      </c>
+      <c r="C23" t="s" s="21">
+        <v>102</v>
+      </c>
+      <c r="D23" t="s" s="21">
+        <v>103</v>
+      </c>
+      <c r="E23" t="s" s="21">
+        <v>104</v>
+      </c>
+      <c r="F23" s="28">
+        <v>25290</v>
+      </c>
+      <c r="G23" s="29">
+        <v>987703237</v>
+      </c>
+      <c r="H23" t="s" s="30">
+        <v>70</v>
+      </c>
+      <c r="I23" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="J23" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" t="s" s="26">
+        <v>105</v>
+      </c>
+      <c r="B24" s="27">
+        <v>71388346</v>
+      </c>
+      <c r="C24" t="s" s="21">
+        <v>106</v>
+      </c>
+      <c r="D24" t="s" s="21">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s" s="21">
+        <v>107</v>
+      </c>
+      <c r="F24" s="28">
+        <v>25291</v>
+      </c>
+      <c r="G24" s="29">
+        <v>987703237</v>
+      </c>
+      <c r="H24" t="s" s="30">
+        <v>70</v>
+      </c>
+      <c r="I24" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="J24" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" t="s" s="26">
+        <v>108</v>
+      </c>
+      <c r="B25" s="27">
+        <v>74151885</v>
+      </c>
+      <c r="C25" t="s" s="21">
+        <v>109</v>
+      </c>
+      <c r="D25" t="s" s="21">
+        <v>110</v>
+      </c>
+      <c r="E25" t="s" s="21">
+        <v>15</v>
+      </c>
+      <c r="F25" s="28">
+        <v>25292</v>
+      </c>
+      <c r="G25" s="29">
+        <v>987703237</v>
+      </c>
+      <c r="H25" t="s" s="30">
+        <v>70</v>
+      </c>
+      <c r="I25" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="J25" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" t="s" s="26">
+        <v>111</v>
+      </c>
+      <c r="B26" s="27">
+        <v>1327284</v>
+      </c>
+      <c r="C26" t="s" s="21">
+        <v>112</v>
+      </c>
+      <c r="D26" t="s" s="21">
+        <v>96</v>
+      </c>
+      <c r="E26" t="s" s="21">
+        <v>113</v>
+      </c>
+      <c r="F26" s="28">
+        <v>25293</v>
+      </c>
+      <c r="G26" s="29">
+        <v>987703237</v>
+      </c>
+      <c r="H26" t="s" s="30">
+        <v>70</v>
+      </c>
+      <c r="I26" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="J26" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" t="s" s="26">
+        <v>114</v>
+      </c>
+      <c r="B27" s="27">
+        <v>75850371</v>
+      </c>
+      <c r="C27" t="s" s="21">
+        <v>115</v>
+      </c>
+      <c r="D27" t="s" s="21">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s" s="21">
+        <v>116</v>
+      </c>
+      <c r="F27" s="28">
+        <v>25294</v>
+      </c>
+      <c r="G27" s="29">
+        <v>987703237</v>
+      </c>
+      <c r="H27" t="s" s="30">
+        <v>70</v>
+      </c>
+      <c r="I27" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="J27" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" t="s" s="26">
+        <v>117</v>
+      </c>
+      <c r="B28" s="27">
+        <v>45052785</v>
+      </c>
+      <c r="C28" t="s" s="21">
+        <v>118</v>
+      </c>
+      <c r="D28" t="s" s="21">
+        <v>96</v>
+      </c>
+      <c r="E28" t="s" s="21">
+        <v>119</v>
+      </c>
+      <c r="F28" s="28">
+        <v>25295</v>
+      </c>
+      <c r="G28" s="29">
+        <v>987703237</v>
+      </c>
+      <c r="H28" t="s" s="30">
+        <v>70</v>
+      </c>
+      <c r="I28" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="J28" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" t="s" s="26">
+        <v>120</v>
+      </c>
+      <c r="B29" s="27">
+        <v>79300045</v>
+      </c>
+      <c r="C29" t="s" s="21">
+        <v>121</v>
+      </c>
+      <c r="D29" t="s" s="21">
+        <v>122</v>
+      </c>
+      <c r="E29" t="s" s="21">
+        <v>46</v>
+      </c>
+      <c r="F29" s="28">
+        <v>25296</v>
+      </c>
+      <c r="G29" s="29">
+        <v>987703237</v>
+      </c>
+      <c r="H29" t="s" s="30">
+        <v>70</v>
+      </c>
+      <c r="I29" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="J29" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" t="s" s="26">
+        <v>123</v>
+      </c>
+      <c r="B30" s="27">
+        <v>46849648</v>
+      </c>
+      <c r="C30" t="s" s="21">
+        <v>124</v>
+      </c>
+      <c r="D30" t="s" s="21">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s" s="21">
+        <v>113</v>
+      </c>
+      <c r="F30" s="28">
+        <v>25297</v>
+      </c>
+      <c r="G30" s="29">
+        <v>987703237</v>
+      </c>
+      <c r="H30" t="s" s="30">
+        <v>70</v>
+      </c>
+      <c r="I30" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="J30" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" t="s" s="26">
+        <v>125</v>
+      </c>
+      <c r="B31" s="27">
+        <v>30657748</v>
+      </c>
+      <c r="C31" t="s" s="21">
+        <v>126</v>
+      </c>
+      <c r="D31" t="s" s="21">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s" s="21">
+        <v>127</v>
+      </c>
+      <c r="F31" s="28">
+        <v>25298</v>
+      </c>
+      <c r="G31" s="29">
+        <v>987703237</v>
+      </c>
+      <c r="H31" t="s" s="30">
+        <v>70</v>
+      </c>
+      <c r="I31" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="J31" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" t="s" s="26">
+        <v>128</v>
+      </c>
+      <c r="B32" s="27">
+        <v>44804061</v>
+      </c>
+      <c r="C32" t="s" s="21">
+        <v>129</v>
+      </c>
+      <c r="D32" t="s" s="21">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s" s="21">
+        <v>130</v>
+      </c>
+      <c r="F32" s="28">
+        <v>25299</v>
+      </c>
+      <c r="G32" s="29">
+        <v>987703237</v>
+      </c>
+      <c r="H32" t="s" s="30">
+        <v>70</v>
+      </c>
+      <c r="I32" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="J32" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" t="s" s="26">
+        <v>131</v>
+      </c>
+      <c r="B33" s="27">
+        <v>73492304</v>
+      </c>
+      <c r="C33" t="s" s="21">
+        <v>132</v>
+      </c>
+      <c r="D33" t="s" s="21">
+        <v>133</v>
+      </c>
+      <c r="E33" t="s" s="21">
+        <v>134</v>
+      </c>
+      <c r="F33" s="28">
+        <v>25300</v>
+      </c>
+      <c r="G33" s="29">
+        <v>987703237</v>
+      </c>
+      <c r="H33" t="s" s="30">
+        <v>70</v>
+      </c>
+      <c r="I33" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="J33" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" t="s" s="26">
+        <v>135</v>
+      </c>
+      <c r="B34" s="27">
+        <v>44807243</v>
+      </c>
+      <c r="C34" t="s" s="21">
+        <v>136</v>
+      </c>
+      <c r="D34" t="s" s="21">
+        <v>137</v>
+      </c>
+      <c r="E34" t="s" s="21">
+        <v>138</v>
+      </c>
+      <c r="F34" s="28">
+        <v>25301</v>
+      </c>
+      <c r="G34" s="29">
+        <v>987703237</v>
+      </c>
+      <c r="H34" t="s" s="30">
+        <v>70</v>
+      </c>
+      <c r="I34" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="J34" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" t="s" s="26">
+        <v>139</v>
+      </c>
+      <c r="B35" s="27">
+        <v>47955083</v>
+      </c>
+      <c r="C35" t="s" s="21">
+        <v>140</v>
+      </c>
+      <c r="D35" t="s" s="21">
+        <v>141</v>
+      </c>
+      <c r="E35" t="s" s="21">
+        <v>142</v>
+      </c>
+      <c r="F35" s="28">
+        <v>25302</v>
+      </c>
+      <c r="G35" s="29">
+        <v>987703237</v>
+      </c>
+      <c r="H35" t="s" s="30">
+        <v>70</v>
+      </c>
+      <c r="I35" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="J35" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" t="s" s="26">
+        <v>143</v>
+      </c>
+      <c r="B36" s="27">
+        <v>70539766</v>
+      </c>
+      <c r="C36" t="s" s="21">
+        <v>144</v>
+      </c>
+      <c r="D36" t="s" s="21">
+        <v>145</v>
+      </c>
+      <c r="E36" t="s" s="21">
+        <v>92</v>
+      </c>
+      <c r="F36" s="28">
+        <v>25303</v>
+      </c>
+      <c r="G36" s="29">
+        <v>987703237</v>
+      </c>
+      <c r="H36" t="s" s="30">
+        <v>70</v>
+      </c>
+      <c r="I36" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="J36" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+    </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" t="s" s="26">
+        <v>146</v>
+      </c>
+      <c r="B37" s="27">
+        <v>2440795</v>
+      </c>
+      <c r="C37" t="s" s="21">
+        <v>147</v>
+      </c>
+      <c r="D37" t="s" s="21">
+        <v>148</v>
+      </c>
+      <c r="E37" t="s" s="21">
+        <v>29</v>
+      </c>
+      <c r="F37" s="28">
+        <v>25304</v>
+      </c>
+      <c r="G37" s="29">
+        <v>987703237</v>
+      </c>
+      <c r="H37" t="s" s="30">
+        <v>70</v>
+      </c>
+      <c r="I37" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="J37" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" t="s" s="26">
+        <v>149</v>
+      </c>
+      <c r="B38" s="27">
+        <v>42924554</v>
+      </c>
+      <c r="C38" t="s" s="21">
+        <v>150</v>
+      </c>
+      <c r="D38" t="s" s="21">
+        <v>151</v>
+      </c>
+      <c r="E38" t="s" s="21">
+        <v>141</v>
+      </c>
+      <c r="F38" s="28">
+        <v>25305</v>
+      </c>
+      <c r="G38" s="29">
+        <v>987703237</v>
+      </c>
+      <c r="H38" t="s" s="30">
+        <v>70</v>
+      </c>
+      <c r="I38" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="J38" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+    </row>
+    <row r="39" ht="20.05" customHeight="1">
+      <c r="A39" t="s" s="26">
+        <v>152</v>
+      </c>
+      <c r="B39" s="27">
+        <v>45785415</v>
+      </c>
+      <c r="C39" t="s" s="32">
+        <v>153</v>
+      </c>
+      <c r="D39" t="s" s="21">
+        <v>154</v>
+      </c>
+      <c r="E39" t="s" s="21">
+        <v>155</v>
+      </c>
+      <c r="F39" s="28">
+        <v>25306</v>
+      </c>
+      <c r="G39" s="29">
+        <v>987703237</v>
+      </c>
+      <c r="H39" t="s" s="30">
+        <v>70</v>
+      </c>
+      <c r="I39" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="J39" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+    </row>
+    <row r="40" ht="20.05" customHeight="1">
+      <c r="A40" t="s" s="26">
+        <v>156</v>
+      </c>
+      <c r="B40" s="27">
+        <v>2279562</v>
+      </c>
+      <c r="C40" t="s" s="21">
+        <v>157</v>
+      </c>
+      <c r="D40" t="s" s="21">
+        <v>158</v>
+      </c>
+      <c r="E40" t="s" s="21">
+        <v>159</v>
+      </c>
+      <c r="F40" s="28">
+        <v>25307</v>
+      </c>
+      <c r="G40" s="29">
+        <v>987703237</v>
+      </c>
+      <c r="H40" t="s" s="30">
+        <v>70</v>
+      </c>
+      <c r="I40" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="J40" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+    </row>
+    <row r="41" ht="20.05" customHeight="1">
+      <c r="A41" t="s" s="26">
+        <v>160</v>
+      </c>
+      <c r="B41" s="27">
+        <v>42372252</v>
+      </c>
+      <c r="C41" t="s" s="21">
+        <v>150</v>
+      </c>
+      <c r="D41" t="s" s="21">
+        <v>161</v>
+      </c>
+      <c r="E41" s="31"/>
+      <c r="F41" s="28">
+        <v>25308</v>
+      </c>
+      <c r="G41" s="29">
+        <v>987703237</v>
+      </c>
+      <c r="H41" t="s" s="30">
+        <v>70</v>
+      </c>
+      <c r="I41" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="J41" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+    </row>
+    <row r="42" ht="20.05" customHeight="1">
+      <c r="A42" t="s" s="26">
+        <v>162</v>
+      </c>
+      <c r="B42" s="27">
+        <v>47133255</v>
+      </c>
+      <c r="C42" t="s" s="21">
+        <v>163</v>
+      </c>
+      <c r="D42" t="s" s="21">
+        <v>46</v>
+      </c>
+      <c r="E42" t="s" s="21">
+        <v>15</v>
+      </c>
+      <c r="F42" s="28">
+        <v>25309</v>
+      </c>
+      <c r="G42" s="29">
+        <v>987703237</v>
+      </c>
+      <c r="H42" t="s" s="30">
+        <v>70</v>
+      </c>
+      <c r="I42" t="s" s="30">
+        <v>25</v>
+      </c>
+      <c r="J42" t="s" s="30">
+        <v>18</v>
+      </c>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/upload/data.xlsx
+++ b/upload/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70808739-06D9-4691-912B-00EF66D12534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3321FB-57D1-4E20-8BA2-BAC27D8E1D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{64EC7E65-2C15-4F95-A881-C56E8E53CFBF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="461">
   <si>
     <t>02168795</t>
   </si>
@@ -75,9 +75,6 @@
     <t>76982531</t>
   </si>
   <si>
-    <t>12/20/1965</t>
-  </si>
-  <si>
     <t>01516775</t>
   </si>
   <si>
@@ -198,9 +195,6 @@
     <t>06275764</t>
   </si>
   <si>
-    <t>08/30/1974</t>
-  </si>
-  <si>
     <t>02557451</t>
   </si>
   <si>
@@ -1141,6 +1135,288 @@
   </si>
   <si>
     <t xml:space="preserve">PINTO </t>
+  </si>
+  <si>
+    <t>1976-02-01</t>
+  </si>
+  <si>
+    <t>1960-10-06</t>
+  </si>
+  <si>
+    <t>1996-05-18</t>
+  </si>
+  <si>
+    <t>1991-01-02</t>
+  </si>
+  <si>
+    <t>1985-08-15</t>
+  </si>
+  <si>
+    <t>1960-09-02</t>
+  </si>
+  <si>
+    <t>2095-10-15</t>
+  </si>
+  <si>
+    <t>1963-06-09</t>
+  </si>
+  <si>
+    <t>1965-08-23</t>
+  </si>
+  <si>
+    <t>1992-05-30</t>
+  </si>
+  <si>
+    <t>1979-04-21</t>
+  </si>
+  <si>
+    <t>1968-12-19</t>
+  </si>
+  <si>
+    <t>2022-09-12</t>
+  </si>
+  <si>
+    <t>2022-03-07</t>
+  </si>
+  <si>
+    <t>1965-12-20</t>
+  </si>
+  <si>
+    <t>1979-05-27</t>
+  </si>
+  <si>
+    <t>1997-10-14</t>
+  </si>
+  <si>
+    <t>1996-01-15</t>
+  </si>
+  <si>
+    <t>1992-08-06</t>
+  </si>
+  <si>
+    <t>1975-08-28</t>
+  </si>
+  <si>
+    <t>1984-08-26</t>
+  </si>
+  <si>
+    <t>1985-06-08</t>
+  </si>
+  <si>
+    <t>1988-07-24</t>
+  </si>
+  <si>
+    <t>1969-01-22</t>
+  </si>
+  <si>
+    <t>1997-03-12</t>
+  </si>
+  <si>
+    <t>1995-11-23</t>
+  </si>
+  <si>
+    <t>1979-01-01</t>
+  </si>
+  <si>
+    <t>1999-01-06</t>
+  </si>
+  <si>
+    <t>1994-09-26</t>
+  </si>
+  <si>
+    <t>1978-09-08</t>
+  </si>
+  <si>
+    <t>1971-09-06</t>
+  </si>
+  <si>
+    <t>1967-10-31</t>
+  </si>
+  <si>
+    <t>1965-04-22</t>
+  </si>
+  <si>
+    <t>1996-11-02</t>
+  </si>
+  <si>
+    <t>1993-05-30</t>
+  </si>
+  <si>
+    <t>1996-04-13</t>
+  </si>
+  <si>
+    <t>1984-07-16</t>
+  </si>
+  <si>
+    <t>1988-12-23</t>
+  </si>
+  <si>
+    <t>1991-11-01</t>
+  </si>
+  <si>
+    <t>1988-01-15</t>
+  </si>
+  <si>
+    <t>1995-03-25</t>
+  </si>
+  <si>
+    <t>2000-11-16</t>
+  </si>
+  <si>
+    <t>1993-02-05</t>
+  </si>
+  <si>
+    <t>1986-07-22</t>
+  </si>
+  <si>
+    <t>1996-06-01</t>
+  </si>
+  <si>
+    <t>1957-07-18</t>
+  </si>
+  <si>
+    <t>1996-12-18</t>
+  </si>
+  <si>
+    <t>2002-09-08</t>
+  </si>
+  <si>
+    <t>1968-05-19</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>1989-12-08</t>
+  </si>
+  <si>
+    <t>1967-08-20</t>
+  </si>
+  <si>
+    <t>2000-03-07</t>
+  </si>
+  <si>
+    <t>1989-03-12</t>
+  </si>
+  <si>
+    <t>1993-05-16</t>
+  </si>
+  <si>
+    <t>1970-05-05</t>
+  </si>
+  <si>
+    <t>2002-02-26</t>
+  </si>
+  <si>
+    <t>1982-05-27</t>
+  </si>
+  <si>
+    <t>1996-08-18</t>
+  </si>
+  <si>
+    <t>1970-12-06</t>
+  </si>
+  <si>
+    <t>1990-02-18</t>
+  </si>
+  <si>
+    <t>1979-09-11</t>
+  </si>
+  <si>
+    <t>1964-10-02</t>
+  </si>
+  <si>
+    <t>1967-10-04</t>
+  </si>
+  <si>
+    <t>1982-08-28</t>
+  </si>
+  <si>
+    <t>1974-08-30</t>
+  </si>
+  <si>
+    <t>1977-01-10</t>
+  </si>
+  <si>
+    <t>1973-09-23</t>
+  </si>
+  <si>
+    <t>2004-01-24</t>
+  </si>
+  <si>
+    <t>1990-06-08</t>
+  </si>
+  <si>
+    <t>1986-08-15</t>
+  </si>
+  <si>
+    <t>1963-01-13</t>
+  </si>
+  <si>
+    <t>1955-09-20</t>
+  </si>
+  <si>
+    <t>1967-03-11</t>
+  </si>
+  <si>
+    <t>2022-02-09</t>
+  </si>
+  <si>
+    <t>2022-11-23</t>
+  </si>
+  <si>
+    <t>1972-08-19</t>
+  </si>
+  <si>
+    <t>1996-08-11</t>
+  </si>
+  <si>
+    <t>1986-09-02</t>
+  </si>
+  <si>
+    <t>1983-01-17</t>
+  </si>
+  <si>
+    <t>1982-11-21</t>
+  </si>
+  <si>
+    <t>1991-05-27</t>
+  </si>
+  <si>
+    <t>1995-04-01</t>
+  </si>
+  <si>
+    <t>2004-07-04</t>
+  </si>
+  <si>
+    <t>1986-03-15</t>
+  </si>
+  <si>
+    <t>1982-04-07</t>
+  </si>
+  <si>
+    <t>1994-04-24</t>
+  </si>
+  <si>
+    <t>1976-09-01</t>
+  </si>
+  <si>
+    <t>1989-02-14</t>
+  </si>
+  <si>
+    <t>1981-07-17</t>
+  </si>
+  <si>
+    <t>1990-04-01</t>
+  </si>
+  <si>
+    <t>1994-10-16</t>
+  </si>
+  <si>
+    <t>1993-11-20</t>
+  </si>
+  <si>
+    <t>1979-11-23</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1424,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1206,7 +1482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1220,8 +1496,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1539,2722 +1817,2728 @@
   <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.5546875" style="8"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>27791</v>
+      <c r="C2" s="8" t="s">
+        <v>367</v>
       </c>
       <c r="D2">
         <v>984135853</v>
       </c>
       <c r="E2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" t="s">
         <v>186</v>
       </c>
-      <c r="F2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G2" t="s">
-        <v>188</v>
-      </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>22195</v>
+      <c r="C3" s="8" t="s">
+        <v>368</v>
       </c>
       <c r="D3">
         <v>969774509</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
-        <v>35203</v>
+      <c r="C4" s="8" t="s">
+        <v>369</v>
       </c>
       <c r="D4">
         <v>984116056</v>
       </c>
       <c r="E4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5">
-        <v>33240</v>
+      <c r="C5" s="8" t="s">
+        <v>370</v>
       </c>
       <c r="D5">
         <v>924278932</v>
       </c>
       <c r="E5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5">
-        <v>31274</v>
+      <c r="C6" s="8" t="s">
+        <v>371</v>
       </c>
       <c r="D6">
         <v>943562576</v>
       </c>
       <c r="E6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>195</v>
+      <c r="C7" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D7">
         <v>924649360</v>
       </c>
       <c r="E7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5">
-        <v>22161</v>
+      <c r="C8" s="8" t="s">
+        <v>372</v>
       </c>
       <c r="D8">
         <v>934828202</v>
       </c>
       <c r="E8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5">
-        <v>71512</v>
+      <c r="C9" s="8" t="s">
+        <v>373</v>
       </c>
       <c r="D9">
         <v>990424257</v>
       </c>
       <c r="E9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>2364666</v>
       </c>
-      <c r="C10" s="5">
-        <v>23171</v>
+      <c r="C10" s="8" t="s">
+        <v>374</v>
       </c>
       <c r="D10">
         <v>966348294</v>
       </c>
       <c r="E10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" t="s">
         <v>198</v>
       </c>
-      <c r="F10" t="s">
-        <v>200</v>
-      </c>
       <c r="G10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="5">
-        <v>23977</v>
+      <c r="C11" s="8" t="s">
+        <v>375</v>
       </c>
       <c r="D11">
         <v>953771870</v>
       </c>
       <c r="E11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>195</v>
+      <c r="C12" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D12">
         <v>965444383</v>
       </c>
       <c r="E12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>71615733</v>
       </c>
-      <c r="C13" s="5">
-        <v>33754</v>
+      <c r="C13" s="8" t="s">
+        <v>376</v>
       </c>
       <c r="D13">
         <v>980631160</v>
       </c>
       <c r="E13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G13" t="s">
         <v>203</v>
       </c>
-      <c r="F13" t="s">
-        <v>204</v>
-      </c>
-      <c r="G13" t="s">
-        <v>205</v>
-      </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>40208498</v>
       </c>
-      <c r="C14" s="5">
-        <v>28966</v>
+      <c r="C14" s="8" t="s">
+        <v>377</v>
       </c>
       <c r="D14">
         <v>967734105</v>
       </c>
       <c r="E14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>29410478</v>
       </c>
-      <c r="C15" s="5">
-        <v>25191</v>
+      <c r="C15" s="8" t="s">
+        <v>378</v>
       </c>
       <c r="D15">
         <v>945460818</v>
       </c>
       <c r="E15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>195</v>
+      <c r="C16" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D16">
         <v>910819416</v>
       </c>
       <c r="E16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>195</v>
+      <c r="C17" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D17">
         <v>988787830</v>
       </c>
       <c r="E17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>46454835</v>
       </c>
-      <c r="C18" s="5">
-        <v>44816</v>
+      <c r="C18" s="8" t="s">
+        <v>379</v>
       </c>
       <c r="D18">
         <v>973281635</v>
       </c>
       <c r="E18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="5">
-        <v>44627</v>
+      <c r="C19" s="8" t="s">
+        <v>380</v>
       </c>
       <c r="D19">
         <v>962450418</v>
       </c>
       <c r="E19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="A20" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="8" t="s">
+        <v>381</v>
       </c>
       <c r="D20">
         <v>941211034</v>
       </c>
       <c r="E20" t="s">
+        <v>214</v>
+      </c>
+      <c r="F20" t="s">
+        <v>215</v>
+      </c>
+      <c r="G20" t="s">
         <v>216</v>
       </c>
-      <c r="F20" t="s">
-        <v>217</v>
-      </c>
-      <c r="G20" t="s">
-        <v>218</v>
-      </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>80212250</v>
       </c>
-      <c r="C21" s="5">
-        <v>29002</v>
+      <c r="B21" s="6"/>
+      <c r="C21" s="8" t="s">
+        <v>382</v>
       </c>
       <c r="D21">
         <v>950314095</v>
       </c>
       <c r="E21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>195</v>
+      <c r="A22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D22">
         <v>965725946</v>
       </c>
       <c r="E22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="5">
-        <v>35717</v>
+      <c r="A23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>383</v>
       </c>
       <c r="D23">
         <v>968482425</v>
       </c>
       <c r="E23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>40010609</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="F23" t="s">
-        <v>91</v>
-      </c>
-      <c r="G23" t="s">
-        <v>101</v>
-      </c>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
-        <v>40010609</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="D24">
         <v>951337010</v>
       </c>
       <c r="E24" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F24" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="5">
-        <v>35079</v>
+      <c r="A25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>384</v>
       </c>
       <c r="D25">
         <v>919759585</v>
       </c>
       <c r="E25" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>70127767</v>
       </c>
-      <c r="C26" s="5">
-        <v>33822</v>
+      <c r="C26" s="8" t="s">
+        <v>385</v>
       </c>
       <c r="D26">
         <v>910682580</v>
       </c>
       <c r="E26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G26" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="5">
-        <v>27634</v>
+      <c r="A27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>386</v>
       </c>
       <c r="D27">
         <v>941119800</v>
       </c>
       <c r="E27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="5">
-        <v>30920</v>
+      <c r="A28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>387</v>
       </c>
       <c r="D28">
         <v>950385438</v>
       </c>
       <c r="E28" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F28" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" t="s">
         <v>229</v>
       </c>
-      <c r="G28" t="s">
-        <v>231</v>
-      </c>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="5">
-        <v>31206</v>
+      <c r="A29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>388</v>
       </c>
       <c r="D29">
         <v>951155757</v>
       </c>
       <c r="E29" t="s">
+        <v>230</v>
+      </c>
+      <c r="F29" t="s">
+        <v>231</v>
+      </c>
+      <c r="G29" t="s">
         <v>232</v>
       </c>
-      <c r="F29" t="s">
-        <v>233</v>
-      </c>
-      <c r="G29" t="s">
-        <v>234</v>
-      </c>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>45725509</v>
       </c>
-      <c r="C30" s="5">
-        <v>32348</v>
+      <c r="C30" s="8" t="s">
+        <v>389</v>
       </c>
       <c r="D30">
         <v>982338509</v>
       </c>
       <c r="E30" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>75065054</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>195</v>
+      <c r="C31" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D31">
         <v>928293031</v>
       </c>
       <c r="E31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="5">
-        <v>25225</v>
+      <c r="A32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>390</v>
       </c>
       <c r="D32">
         <v>983303414</v>
       </c>
       <c r="E32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>195</v>
+      <c r="A33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D33">
         <v>935914909</v>
       </c>
       <c r="E33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>29419410</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>195</v>
+      <c r="C34" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D34">
         <v>987703237</v>
       </c>
       <c r="E34" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>71806147</v>
       </c>
-      <c r="C35" s="5">
-        <v>35501</v>
+      <c r="C35" s="8" t="s">
+        <v>391</v>
       </c>
       <c r="D35">
         <v>900291772</v>
       </c>
       <c r="E35" t="s">
+        <v>240</v>
+      </c>
+      <c r="F35" t="s">
+        <v>241</v>
+      </c>
+      <c r="G35" t="s">
         <v>242</v>
       </c>
-      <c r="F35" t="s">
-        <v>243</v>
-      </c>
-      <c r="G35" t="s">
-        <v>244</v>
-      </c>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>48563268</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>195</v>
+      <c r="C36" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D36">
         <v>967240730</v>
       </c>
       <c r="E36" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F36" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G36" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>70371142</v>
       </c>
-      <c r="C37" s="5">
-        <v>35026</v>
+      <c r="C37" s="8" t="s">
+        <v>392</v>
       </c>
       <c r="D37">
         <v>937359102</v>
       </c>
       <c r="E37" t="s">
+        <v>244</v>
+      </c>
+      <c r="F37" t="s">
+        <v>245</v>
+      </c>
+      <c r="G37" t="s">
         <v>246</v>
       </c>
-      <c r="F37" t="s">
-        <v>247</v>
-      </c>
-      <c r="G37" t="s">
-        <v>248</v>
-      </c>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="5">
-        <v>28856</v>
+      <c r="A38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>393</v>
       </c>
       <c r="D38">
         <v>978375474</v>
       </c>
       <c r="E38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F38" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <v>73762254</v>
       </c>
-      <c r="C39" s="5">
-        <v>36166</v>
+      <c r="C39" s="8" t="s">
+        <v>394</v>
       </c>
       <c r="D39">
         <v>959802184</v>
       </c>
       <c r="E39" t="s">
+        <v>249</v>
+      </c>
+      <c r="F39" t="s">
+        <v>250</v>
+      </c>
+      <c r="G39" t="s">
         <v>251</v>
       </c>
-      <c r="F39" t="s">
-        <v>252</v>
-      </c>
-      <c r="G39" t="s">
-        <v>253</v>
-      </c>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
+      <c r="A40" s="5">
         <v>70039072</v>
       </c>
-      <c r="C40" s="5">
-        <v>34603</v>
+      <c r="C40" s="8" t="s">
+        <v>395</v>
       </c>
       <c r="D40">
         <v>91898852</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G40" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
+      <c r="A41" s="5">
         <v>80072477</v>
       </c>
-      <c r="C41" s="5">
-        <v>28741</v>
+      <c r="C41" s="8" t="s">
+        <v>396</v>
       </c>
       <c r="D41">
         <v>942964569</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="5">
-        <v>26182</v>
+      <c r="A42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>397</v>
       </c>
       <c r="D42">
         <v>915341573</v>
       </c>
       <c r="E42" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F42" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="5">
-        <v>24776</v>
+      <c r="A43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>398</v>
       </c>
       <c r="D43">
         <v>951713030</v>
       </c>
       <c r="E43" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F43" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="5">
-        <v>23854</v>
+      <c r="A44" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>399</v>
       </c>
       <c r="D44">
         <v>946788831</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G44" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="5">
-        <v>35371</v>
+      <c r="A45" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>400</v>
       </c>
       <c r="D45">
         <v>993384095</v>
       </c>
       <c r="E45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G45" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="5">
-        <v>34119</v>
+      <c r="A46" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>401</v>
       </c>
       <c r="D46">
         <v>952410656</v>
       </c>
       <c r="E46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G46" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="5">
-        <v>33240</v>
+      <c r="A47" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>370</v>
       </c>
       <c r="D47">
         <v>966240707</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F47" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
+      <c r="A48" s="5">
         <v>2520802</v>
       </c>
-      <c r="C48" s="5">
-        <v>35168</v>
+      <c r="C48" s="8" t="s">
+        <v>402</v>
       </c>
       <c r="D48">
         <v>951774015</v>
       </c>
       <c r="E48" t="s">
+        <v>255</v>
+      </c>
+      <c r="F48" t="s">
+        <v>256</v>
+      </c>
+      <c r="G48" t="s">
         <v>257</v>
       </c>
-      <c r="F48" t="s">
-        <v>258</v>
-      </c>
-      <c r="G48" t="s">
-        <v>259</v>
-      </c>
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
+      <c r="A49" s="5">
         <v>42589405</v>
       </c>
-      <c r="C49" s="5">
-        <v>30879</v>
+      <c r="C49" s="8" t="s">
+        <v>403</v>
       </c>
       <c r="D49">
         <v>951110235</v>
       </c>
       <c r="E49" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F49" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G49" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
+      <c r="A50" s="5">
         <v>47955083</v>
       </c>
-      <c r="C50" s="5">
-        <v>32500</v>
+      <c r="C50" s="8" t="s">
+        <v>404</v>
       </c>
       <c r="D50">
         <v>987959506</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50" t="s">
+        <v>127</v>
+      </c>
+      <c r="G50" t="s">
+        <v>181</v>
+      </c>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D51" t="s">
+        <v>193</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F50" t="s">
-        <v>129</v>
-      </c>
-      <c r="G50" t="s">
-        <v>183</v>
-      </c>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+      <c r="F51" t="s">
+        <v>100</v>
+      </c>
+      <c r="G51" t="s">
+        <v>182</v>
+      </c>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D51" t="s">
-        <v>195</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
-      </c>
-      <c r="G51" t="s">
-        <v>184</v>
-      </c>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" s="5">
-        <v>33543</v>
+      <c r="C52" s="8" t="s">
+        <v>405</v>
       </c>
       <c r="D52">
         <v>999208224</v>
       </c>
       <c r="E52" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F52" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53" s="5">
-        <v>32157</v>
+      <c r="A53" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>406</v>
       </c>
       <c r="D53">
         <v>960807366</v>
       </c>
       <c r="E53" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G53" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="6">
+      <c r="A54" s="5">
         <v>70127516</v>
       </c>
-      <c r="C54" s="5">
-        <v>34783</v>
+      <c r="C54" s="8" t="s">
+        <v>407</v>
       </c>
       <c r="D54">
         <v>970593551</v>
       </c>
       <c r="E54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F54" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G54" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="6">
+      <c r="A55" s="5">
         <v>60268555</v>
       </c>
-      <c r="C55" s="5">
-        <v>36846</v>
+      <c r="C55" s="8" t="s">
+        <v>408</v>
       </c>
       <c r="D55">
         <v>976280695</v>
       </c>
       <c r="E55" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F55" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G55" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>195</v>
+      <c r="A56" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D56">
         <v>947214100</v>
       </c>
       <c r="E56" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F56" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G56" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="6">
+      <c r="A57" s="5">
         <v>48064683</v>
       </c>
-      <c r="C57" s="5">
-        <v>34005</v>
+      <c r="C57" s="8" t="s">
+        <v>409</v>
       </c>
       <c r="D57">
         <v>992784574</v>
       </c>
       <c r="E57" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F57" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G57" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="6">
+      <c r="A58" s="5">
         <v>70874098</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>195</v>
+      <c r="C58" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D58">
         <v>985244455</v>
       </c>
       <c r="E58" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F58" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G58" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="6">
+      <c r="A59" s="5">
         <v>71949987</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>195</v>
+      <c r="C59" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D59">
         <v>921365589</v>
       </c>
       <c r="E59" t="s">
+        <v>268</v>
+      </c>
+      <c r="F59" t="s">
+        <v>269</v>
+      </c>
+      <c r="G59" t="s">
         <v>270</v>
       </c>
-      <c r="F59" t="s">
-        <v>271</v>
-      </c>
-      <c r="G59" t="s">
-        <v>272</v>
-      </c>
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>195</v>
+      <c r="A60" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D60">
         <v>966431611</v>
       </c>
       <c r="E60" t="s">
+        <v>271</v>
+      </c>
+      <c r="F60" t="s">
+        <v>272</v>
+      </c>
+      <c r="G60" t="s">
         <v>273</v>
       </c>
-      <c r="F60" t="s">
-        <v>274</v>
-      </c>
-      <c r="G60" t="s">
-        <v>275</v>
-      </c>
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>195</v>
+      <c r="A61" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D61">
         <v>991172823</v>
       </c>
       <c r="E61" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F61" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G61" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="6">
+      <c r="A62" s="5">
         <v>45727435</v>
       </c>
-      <c r="C62" s="5">
-        <v>31615</v>
+      <c r="C62" s="8" t="s">
+        <v>410</v>
       </c>
       <c r="D62">
         <v>926189639</v>
       </c>
       <c r="E62" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F62" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G62" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="6">
+      <c r="A63" s="5">
         <v>74247947</v>
       </c>
-      <c r="C63" s="5">
-        <v>35217</v>
+      <c r="C63" s="8" t="s">
+        <v>411</v>
       </c>
       <c r="D63">
         <v>991141896</v>
       </c>
       <c r="E63" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F63" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G63" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C64" s="5">
-        <v>21019</v>
+      <c r="A64" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>412</v>
       </c>
       <c r="D64">
         <v>986381128</v>
       </c>
       <c r="E64" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F64" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G64" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C65" s="5">
-        <v>35417</v>
+      <c r="A65" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>413</v>
       </c>
       <c r="D65">
         <v>984484408</v>
       </c>
       <c r="E65" t="s">
+        <v>281</v>
+      </c>
+      <c r="F65" t="s">
+        <v>149</v>
+      </c>
+      <c r="G65" t="s">
+        <v>136</v>
+      </c>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="D66" t="s">
+        <v>193</v>
+      </c>
+      <c r="E66" t="s">
+        <v>282</v>
+      </c>
+      <c r="F66" t="s">
+        <v>89</v>
+      </c>
+      <c r="G66" t="s">
         <v>283</v>
       </c>
-      <c r="F65" t="s">
-        <v>151</v>
-      </c>
-      <c r="G65" t="s">
-        <v>138</v>
-      </c>
-      <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C66" s="5">
-        <v>37507</v>
-      </c>
-      <c r="D66" t="s">
-        <v>195</v>
-      </c>
-      <c r="E66" t="s">
-        <v>284</v>
-      </c>
-      <c r="F66" t="s">
-        <v>91</v>
-      </c>
-      <c r="G66" t="s">
-        <v>285</v>
-      </c>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C67" s="5">
-        <v>24977</v>
+      <c r="C67" s="8" t="s">
+        <v>415</v>
       </c>
       <c r="D67">
         <v>986238881</v>
       </c>
       <c r="E67" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F67" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G67" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C68" s="5">
-        <v>44742</v>
+      <c r="A68" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="D68">
         <v>967707825</v>
       </c>
       <c r="E68" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F68" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G68" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C69" s="5">
-        <v>32850</v>
+      <c r="A69" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>417</v>
       </c>
       <c r="D69">
         <v>928267673</v>
       </c>
       <c r="E69" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F69" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G69" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C70" s="5">
-        <v>24704</v>
+      <c r="A70" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>418</v>
       </c>
       <c r="D70">
         <v>989545666</v>
       </c>
       <c r="E70" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F70" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G70" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C71" s="5">
-        <v>36592</v>
+      <c r="A71" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>419</v>
       </c>
       <c r="D71">
         <v>926440520</v>
       </c>
       <c r="E71" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F71" t="s">
+        <v>288</v>
+      </c>
+      <c r="G71" t="s">
+        <v>289</v>
+      </c>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" t="s">
+        <v>193</v>
+      </c>
+      <c r="E72" t="s">
         <v>290</v>
       </c>
-      <c r="G71" t="s">
+      <c r="F72" t="s">
         <v>291</v>
       </c>
-      <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
+      <c r="G72" t="s">
+        <v>292</v>
+      </c>
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D72" t="s">
-        <v>195</v>
-      </c>
-      <c r="E72" t="s">
-        <v>292</v>
-      </c>
-      <c r="F72" t="s">
-        <v>293</v>
-      </c>
-      <c r="G72" t="s">
-        <v>294</v>
-      </c>
-      <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C73" s="5">
-        <v>32579</v>
+      <c r="C73" s="8" t="s">
+        <v>420</v>
       </c>
       <c r="D73">
         <v>915122720</v>
       </c>
       <c r="E73" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F73" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="6">
+      <c r="A74" s="5">
         <v>47936013</v>
       </c>
-      <c r="C74" s="5">
-        <v>34105</v>
+      <c r="C74" s="8" t="s">
+        <v>421</v>
       </c>
       <c r="D74">
         <v>989469000</v>
       </c>
       <c r="E74" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F74" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G74" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C75" s="5">
-        <v>25693</v>
+      <c r="A75" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>422</v>
       </c>
       <c r="D75">
         <v>924176956</v>
       </c>
       <c r="E75" t="s">
+        <v>296</v>
+      </c>
+      <c r="F75" t="s">
+        <v>297</v>
+      </c>
+      <c r="G75" t="s">
         <v>298</v>
       </c>
-      <c r="F75" t="s">
-        <v>299</v>
-      </c>
-      <c r="G75" t="s">
-        <v>300</v>
-      </c>
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C76" s="5">
-        <v>37313</v>
+      <c r="A76" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>423</v>
       </c>
       <c r="D76">
         <v>987249300</v>
       </c>
       <c r="E76" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F76" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G76" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="6">
+      <c r="A77" s="5">
         <v>41724765</v>
       </c>
-      <c r="C77" s="5">
-        <v>30098</v>
+      <c r="C77" s="8" t="s">
+        <v>424</v>
       </c>
       <c r="D77">
         <v>969100000</v>
       </c>
       <c r="E77" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F77" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G77" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C78" s="5">
-        <v>35295</v>
+      <c r="A78" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>425</v>
       </c>
       <c r="D78">
         <v>902902984</v>
       </c>
       <c r="E78" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F78" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G78" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C79" s="5">
-        <v>25908</v>
+      <c r="A79" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>426</v>
       </c>
       <c r="D79">
         <v>987100521</v>
       </c>
       <c r="E79" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F79" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G79" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C80" s="5">
-        <v>32922</v>
+      <c r="A80" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>427</v>
       </c>
       <c r="D80">
         <v>903063674</v>
       </c>
       <c r="E80" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F80" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G80" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I80" s="1"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C81" s="5">
-        <v>29109</v>
+      <c r="A81" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>428</v>
       </c>
       <c r="D81">
         <v>939883395</v>
       </c>
       <c r="E81" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F81" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G81" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I81" s="1"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C82" s="5">
-        <v>23652</v>
+      <c r="A82" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>429</v>
       </c>
       <c r="D82">
         <v>993488462</v>
       </c>
       <c r="E82" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G82" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I82" s="1"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C83" s="5">
-        <v>24749</v>
+      <c r="A83" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>430</v>
       </c>
       <c r="D83">
         <v>973255604</v>
       </c>
       <c r="E83" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F83" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G83" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="6">
+      <c r="A84" s="5">
         <v>41430264</v>
       </c>
-      <c r="C84" s="5">
-        <v>30191</v>
+      <c r="C84" s="8" t="s">
+        <v>431</v>
       </c>
       <c r="D84">
         <v>948363913</v>
       </c>
       <c r="E84" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F84" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G84" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I84" s="1"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>54</v>
+      <c r="A85" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>432</v>
       </c>
       <c r="D85">
         <v>993016027</v>
       </c>
       <c r="E85" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F85" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G85" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C86" s="5">
-        <v>28135</v>
+      <c r="A86" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c r="C86" s="8" t="s">
+        <v>433</v>
       </c>
       <c r="D86">
         <v>957361023</v>
       </c>
       <c r="E86" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F86" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G86" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C87" s="5">
-        <v>31206</v>
+      <c r="A87" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>388</v>
       </c>
       <c r="D87">
         <v>991759047</v>
       </c>
       <c r="E87" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F87" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C88" s="5">
-        <v>26930</v>
+      <c r="A88" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>434</v>
       </c>
       <c r="D88">
         <v>965798070</v>
       </c>
       <c r="E88" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F88" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G88" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>195</v>
+      <c r="A89" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D89" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E89" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F89" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G89" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C90" s="5">
-        <v>38010</v>
+      <c r="A90" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>435</v>
       </c>
       <c r="D90">
         <v>993553377</v>
       </c>
       <c r="E90" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F90" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G90" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C91" s="5">
-        <v>33032</v>
+      <c r="A91" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>436</v>
       </c>
       <c r="D91">
         <v>931987946</v>
       </c>
       <c r="E91" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F91" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G91" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I91" s="1"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>195</v>
+      <c r="A92" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D92">
         <v>942425182</v>
       </c>
       <c r="E92" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F92" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G92" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C93" s="5">
-        <v>31639</v>
+      <c r="A93" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>437</v>
       </c>
       <c r="D93">
         <v>993869015</v>
       </c>
       <c r="E93" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F93" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G93" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I93" s="1"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C94" s="5">
-        <v>23024</v>
+      <c r="A94" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="D94">
         <v>963779440</v>
       </c>
       <c r="E94" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F94" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G94" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>195</v>
+      <c r="A95" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D95">
         <v>951192562</v>
       </c>
       <c r="E95" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F95" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G95" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I95" s="1"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C96" s="5">
-        <v>20352</v>
+      <c r="A96" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="D96">
         <v>986802212</v>
       </c>
       <c r="E96" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F96" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G96" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I96" s="1"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C97" s="5">
-        <v>24542</v>
+      <c r="A97" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>440</v>
       </c>
       <c r="D97">
         <v>932121816</v>
       </c>
       <c r="E97" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F97" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G97" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="6">
+      <c r="A98" s="5">
         <v>73059661</v>
       </c>
-      <c r="C98" s="5">
-        <v>44601</v>
+      <c r="C98" s="8" t="s">
+        <v>441</v>
       </c>
       <c r="D98">
         <v>921380519</v>
       </c>
       <c r="E98" t="s">
+        <v>325</v>
+      </c>
+      <c r="F98" t="s">
+        <v>326</v>
+      </c>
+      <c r="G98" t="s">
         <v>327</v>
       </c>
-      <c r="F98" t="s">
-        <v>328</v>
-      </c>
-      <c r="G98" t="s">
-        <v>329</v>
-      </c>
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C99" s="5">
-        <v>44888</v>
+      <c r="A99" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>442</v>
       </c>
       <c r="D99">
         <v>951301445</v>
       </c>
       <c r="E99" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F99" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G99" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>195</v>
+      <c r="A100" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D100">
         <v>957134978</v>
       </c>
       <c r="E100" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F100" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G100" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I100" s="1"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="6">
+      <c r="A101" s="5">
         <v>45438435</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>195</v>
+      <c r="C101" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D101">
         <v>967141414</v>
       </c>
       <c r="E101" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F101" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G101" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="6">
+      <c r="A102" s="5">
         <v>80072310</v>
       </c>
-      <c r="C102" s="5" t="s">
-        <v>195</v>
+      <c r="C102" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D102" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E102" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F102" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G102" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I102" s="1"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C103" s="5">
-        <v>26530</v>
+      <c r="A103" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>443</v>
       </c>
       <c r="D103">
         <v>918278769</v>
       </c>
       <c r="E103" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F103" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G103" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="6">
+      <c r="A104" s="5">
         <v>76148471</v>
       </c>
-      <c r="C104" s="5">
-        <v>35288</v>
+      <c r="C104" s="8" t="s">
+        <v>444</v>
       </c>
       <c r="D104">
         <v>940841585</v>
       </c>
       <c r="E104" t="s">
+        <v>333</v>
+      </c>
+      <c r="F104" t="s">
+        <v>334</v>
+      </c>
+      <c r="G104" t="s">
         <v>335</v>
       </c>
-      <c r="F104" t="s">
-        <v>336</v>
-      </c>
-      <c r="G104" t="s">
-        <v>337</v>
-      </c>
       <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="6">
+      <c r="A105" s="5">
         <v>43805842</v>
       </c>
-      <c r="C105" s="5">
-        <v>31657</v>
+      <c r="C105" s="8" t="s">
+        <v>445</v>
       </c>
       <c r="D105">
         <v>955719128</v>
       </c>
       <c r="E105" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F105" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G105" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I105" s="1"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>195</v>
+      <c r="A106" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D106">
         <v>967957887</v>
       </c>
       <c r="E106" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F106" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G106" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>195</v>
+      <c r="A107" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D107">
         <v>933910630</v>
       </c>
       <c r="E107" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F107" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G107" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I107" s="3"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="6">
+      <c r="A108" s="5">
         <v>42485634</v>
       </c>
-      <c r="C108" s="5">
-        <v>30333</v>
+      <c r="C108" s="8" t="s">
+        <v>446</v>
       </c>
       <c r="D108">
         <v>983762745</v>
       </c>
       <c r="E108" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F108" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G108" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I108" s="1"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="6">
+      <c r="A109" s="5">
         <v>43780326</v>
       </c>
-      <c r="C109" s="5">
-        <v>30276</v>
+      <c r="C109" s="8" t="s">
+        <v>447</v>
       </c>
       <c r="D109">
         <v>936208921</v>
       </c>
       <c r="E109" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F109" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G109" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I109" s="1"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="6">
+      <c r="A110" s="5">
         <v>2558481</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>195</v>
+      <c r="C110" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D110">
         <v>950783006</v>
       </c>
       <c r="E110" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F110" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G110" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>195</v>
+      <c r="A111" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D111">
         <v>941291827</v>
       </c>
       <c r="E111" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F111" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G111" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>195</v>
+      <c r="A112" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D112">
         <v>972505030</v>
       </c>
       <c r="E112" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F112" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G112" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I112" s="1"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" s="6">
+      <c r="A113" s="5">
         <v>70202940</v>
       </c>
-      <c r="C113" s="5" t="s">
-        <v>195</v>
+      <c r="C113" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D113">
         <v>931521764</v>
       </c>
       <c r="E113" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F113" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G113" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I113" s="1"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" s="6">
+      <c r="A114" s="5">
         <v>73647604</v>
       </c>
-      <c r="C114" s="5" t="s">
-        <v>195</v>
+      <c r="C114" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D114">
         <v>993827793</v>
       </c>
       <c r="E114" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F114" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G114" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I114" s="1"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" s="6">
+      <c r="A115" s="5">
         <v>47878150</v>
       </c>
-      <c r="C115" s="5" t="s">
-        <v>195</v>
+      <c r="C115" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D115">
         <v>947214100</v>
       </c>
       <c r="E115" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F115" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G115" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I115" s="1"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="6">
+      <c r="A116" s="5">
         <v>45048885</v>
       </c>
-      <c r="C116" s="5" t="s">
-        <v>195</v>
+      <c r="C116" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D116">
         <v>912312976</v>
       </c>
       <c r="E116" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F116" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G116" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I116" s="1"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="6">
+      <c r="A117" s="5">
         <v>47163007</v>
       </c>
-      <c r="C117" s="5">
-        <v>33385</v>
+      <c r="C117" s="8" t="s">
+        <v>448</v>
       </c>
       <c r="D117">
         <v>962711016</v>
       </c>
       <c r="E117" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F117" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G117" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I117" s="1"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" s="6">
+      <c r="A118" s="5">
         <v>71931688</v>
       </c>
-      <c r="C118" s="5">
-        <v>34790</v>
+      <c r="C118" s="8" t="s">
+        <v>449</v>
       </c>
       <c r="D118">
         <v>942157507</v>
       </c>
       <c r="E118" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F118" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G118" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I118" s="1"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" s="6">
+      <c r="A119" s="5">
         <v>71847867</v>
       </c>
-      <c r="C119" s="5">
-        <v>38172</v>
+      <c r="C119" s="8" t="s">
+        <v>450</v>
       </c>
       <c r="D119">
         <v>931611762</v>
       </c>
       <c r="E119" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F119" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G119" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I119" s="1"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="6">
+      <c r="A120" s="5">
         <v>44994283</v>
       </c>
-      <c r="C120" s="5">
-        <v>31486</v>
+      <c r="C120" s="8" t="s">
+        <v>451</v>
       </c>
       <c r="D120">
         <v>935032643</v>
       </c>
       <c r="E120" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F120" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G120" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I120" s="1"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" s="6">
+      <c r="A121" s="5">
         <v>47540058</v>
       </c>
-      <c r="C121" s="5">
-        <v>30048</v>
+      <c r="C121" s="8" t="s">
+        <v>452</v>
       </c>
       <c r="D121">
         <v>962482766</v>
       </c>
       <c r="E121" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F121" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G121" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I121" s="1"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" s="6">
+      <c r="A122" s="5">
         <v>70297412</v>
       </c>
-      <c r="C122" s="5">
-        <v>34448</v>
+      <c r="C122" s="8" t="s">
+        <v>453</v>
       </c>
       <c r="D122">
         <v>901418670</v>
       </c>
       <c r="E122" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F122" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G122" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I122" s="4"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="6">
+      <c r="A123" s="5">
         <v>29735116</v>
       </c>
-      <c r="C123" s="5">
-        <v>28004</v>
+      <c r="C123" s="8" t="s">
+        <v>454</v>
       </c>
       <c r="D123">
         <v>985796750</v>
       </c>
       <c r="E123" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F123" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G123" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I123" s="4"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="6">
+      <c r="A124" s="5">
         <v>45611277</v>
       </c>
-      <c r="C124" s="5">
-        <v>32553</v>
+      <c r="C124" s="8" t="s">
+        <v>455</v>
       </c>
       <c r="D124">
         <v>958017150</v>
       </c>
       <c r="E124" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F124" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G124" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I124" s="1"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" s="6">
+      <c r="A125" s="5">
         <v>41014314</v>
       </c>
-      <c r="C125" s="5">
-        <v>29784</v>
+      <c r="C125" s="8" t="s">
+        <v>456</v>
       </c>
       <c r="D125">
         <v>985555504</v>
       </c>
       <c r="E125" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F125" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G125" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I125" s="1"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="6">
+      <c r="A126" s="5">
         <v>46477262</v>
       </c>
-      <c r="C126" s="5">
-        <v>32964</v>
+      <c r="C126" s="8" t="s">
+        <v>457</v>
       </c>
       <c r="D126">
         <v>992800150</v>
       </c>
       <c r="E126" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F126" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G126" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I126" s="1"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" s="6">
+      <c r="A127" s="5">
         <v>77031482</v>
       </c>
-      <c r="C127" s="5">
-        <v>34623</v>
+      <c r="C127" s="8" t="s">
+        <v>458</v>
       </c>
       <c r="D127">
         <v>902582819</v>
       </c>
       <c r="E127" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G127" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I127" s="1"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128" s="6">
+      <c r="A128" s="5">
         <v>60658777</v>
       </c>
-      <c r="C128" s="5">
-        <v>34293</v>
+      <c r="C128" s="8" t="s">
+        <v>459</v>
       </c>
       <c r="D128">
         <v>953451034</v>
       </c>
       <c r="E128" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F128" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G128" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I128" s="1"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" s="6">
+      <c r="A129" s="5">
         <v>40690489</v>
       </c>
-      <c r="C129" s="5">
-        <v>29182</v>
+      <c r="C129" s="8" t="s">
+        <v>460</v>
       </c>
       <c r="D129">
         <v>952725555</v>
       </c>
       <c r="E129" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F129" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G129" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I129" s="1"/>
     </row>

--- a/upload/data.xlsx
+++ b/upload/data.xlsx
@@ -1450,7 +1450,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s" s="5">
         <v>16</v>
@@ -1489,7 +1489,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I3" t="s" s="5">
         <v>16</v>
@@ -1528,7 +1528,7 @@
         <v>30</v>
       </c>
       <c r="H4" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I4" t="s" s="5">
         <v>16</v>
@@ -1567,7 +1567,7 @@
         <v>34</v>
       </c>
       <c r="H5" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I5" t="s" s="5">
         <v>16</v>
@@ -1606,7 +1606,7 @@
         <v>38</v>
       </c>
       <c r="H6" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I6" t="s" s="5">
         <v>16</v>
@@ -1645,7 +1645,7 @@
         <v>42</v>
       </c>
       <c r="H7" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I7" t="s" s="5">
         <v>16</v>
@@ -1684,7 +1684,7 @@
         <v>46</v>
       </c>
       <c r="H8" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I8" t="s" s="5">
         <v>16</v>
@@ -1723,7 +1723,7 @@
         <v>51</v>
       </c>
       <c r="H9" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I9" t="s" s="5">
         <v>16</v>
@@ -1762,7 +1762,7 @@
         <v>56</v>
       </c>
       <c r="H10" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I10" t="s" s="5">
         <v>16</v>
